--- a/テスト指示書Ver4.xlsx
+++ b/テスト指示書Ver4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="6_{70D49645-6B16-4415-957D-337BB858348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3ED588-5A8E-48DA-9DE5-6D02F18180D3}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="6_{70D49645-6B16-4415-957D-337BB858348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A15A5CF-702F-4B58-948E-71B961FDC180}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.ログイン画面" sheetId="17" r:id="rId1"/>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4037" uniqueCount="1530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="1658">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -21348,10 +21348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④/11+2+4+1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.管理者権限でログインされている
 2.TOPページからアカウント一覧画面へ移行されている</t>
     <rPh sb="2" eb="7">
@@ -21413,25 +21409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一番左上の項目は住所（都道府県）と記載されている</t>
-    <rPh sb="0" eb="4">
-      <t>イチバンヒダリウエ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント一覧画面の表の左側の一番左上の項目を見る</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -21451,6 +21428,2271 @@
     <rPh sb="23" eb="24">
       <t>ミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番左上の項目は名前（姓）と記載されている</t>
+    <rPh sb="0" eb="4">
+      <t>イチバンヒダリウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の名前（姓）の右の枠を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の右の枠は空欄が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の名前（姓）の項目の下を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の項目の下にカナ（姓）と記載されている</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のカナ（姓）の右の枠を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のカナ（姓）の項目の下を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の項目の下にメールアドレスと記載されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のメールアドレスの右の枠を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のメールアドレスの項目の下を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの項目の下にアカウント権限と記載されている</t>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のアカウント権限の項目の右の枠を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの項目の右の枠は空欄が表示されている</t>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の項目の右の枠は空欄が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の項目の右のプルダウンには一般が表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の一番上の左から3枠目の項目を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表の一番上の左から3枠目の項目に名前（名）と記載されている</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の名前（名）の右の枠を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右の枠は空欄が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の名前（名）の項目の下を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の項目の下にカナ（名）と記載されている</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のカナ（名）の右の枠を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の項目の右の枠は空欄が表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のカナ（名）の項目の下を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の項目の下に性別と記載されている</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の性別の項目の右の枠を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別の項目の右の欄に男にチェックが入った状態で表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の右下を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の右下に「検索」ボタンがある</t>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表には何も入力しないでアカウント一覧画面の表の右下の「検索」ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値の状態で「検索」ボタンを押すと表の下に全アカウント一覧が表示される</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の左側の一番左上の項目を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>イチバンヒダリウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の名前（姓）の右の枠を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の名前（姓）の項目の下を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のカナ（姓）の右の枠を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のカナ（姓）の項目の下を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のメールアドレスの右の枠を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のメールアドレスの項目の下を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のアカウント権限の項目の右の枠を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の一番上の左から3枠目の項目を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の名前（名）の右の枠を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の名前（名）の項目の下を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のカナ（名）の右の枠を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表のカナ（名）の項目の下を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の性別の項目の右の枠を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の表の右下を確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面が表示されている
+2.XAMPPでApacheとMySQLを起動させphpMyadminでテーブルの「account_data 」を表示している</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したメールアドレスと一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したカナ（名）と一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したカナ（姓）と一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した名前（名）と一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した名前（姓）と一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のアカウント権限にその中から任意のアカウント権限を選択後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（名）にその中から任意のlast_name_kana を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（姓）にその中から任意のfamily_name_kanaを入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（名）にその中から任意のlast_name を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）にその中から任意のfamily_name を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したアカウント権限と一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のメールアドレスにその中から任意のmailを入力後、検索ボタンを押す</t>
+    <rPh sb="28" eb="32">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の性別にその中から任意のgenderを選択後、検索ボタンを押す</t>
+    <rPh sb="28" eb="32">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した性別と一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）と名前（名）にその中から任意のfamily_name とlast_name を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した名前（姓）と名前（名）一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（姓）とカナ（名）にその中から任意のfamily_name_kana とlast_name_kana  を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したカナ（姓）とカナ（名）一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の性別とアカウント権限にその中から任意のgenderとauthorityを選択後、検索ボタンを押す</t>
+    <rPh sb="28" eb="32">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した性別とアカウント権限が一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）とメールアドレスにその中から任意のfamily_name とmailを入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（名）とメールアドレスにその中から任意のlast_name とmailを入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（名）とメールアドレスにその中から任意のlast_name_kana  とmailを入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の性別とメールアドレスにその中から任意のgender とmailを入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のアカウント権限とメールアドレスにその中から任意のauthorityとmailを入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（姓）とメールアドレスにその中から任意のfamily_name_kana とmailを入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）とカナ（姓）にその中から任意のfamily_name とfamily_name_kanaを入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した名前（姓）とカナ（姓）が一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したアカウント権限とメールアドレスが一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した性別とメールアドレスが一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したカナ（名）とメールアドレスが一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したカナ（姓）とメールアドレスが一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した名前（名）とメールアドレスが一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した名前（姓）とメールアドレスが一致するアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）にその中から任意のfamily_name の一部を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（名）にその中から任意のlast_nameの一部 を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（姓）にその中から任意のfamily_name_kanaの一部を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（名）にその中から任意のlast_name_kanaの一部を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のメールアドレスにその中から任意のmailの一部を入力後、検索ボタンを押す</t>
+    <rPh sb="28" eb="32">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した名前（姓）を含むアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した名前（名）を含むアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したカナ（姓）を含むアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したカナ（名）を含むアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したメールアドレスを含むアカウント一覧が表の下に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-33</t>
+  </si>
+  <si>
+    <t>6-34</t>
+  </si>
+  <si>
+    <t>6-35</t>
+  </si>
+  <si>
+    <t>6-36</t>
+  </si>
+  <si>
+    <t>6-37</t>
+  </si>
+  <si>
+    <t>6-38</t>
+  </si>
+  <si>
+    <t>6-39</t>
+  </si>
+  <si>
+    <t>6-40</t>
+  </si>
+  <si>
+    <t>6-41</t>
+  </si>
+  <si>
+    <t>6-42</t>
+  </si>
+  <si>
+    <t>6-43</t>
+  </si>
+  <si>
+    <t>6-44</t>
+  </si>
+  <si>
+    <t>6-45</t>
+  </si>
+  <si>
+    <t>6-46</t>
+  </si>
+  <si>
+    <t>6-47</t>
+  </si>
+  <si>
+    <t>6-48</t>
+  </si>
+  <si>
+    <t>6-49</t>
+  </si>
+  <si>
+    <t>6-50</t>
+  </si>
+  <si>
+    <t>6-51</t>
+  </si>
+  <si>
+    <t>6-52</t>
+  </si>
+  <si>
+    <t>6-53</t>
+  </si>
+  <si>
+    <t>6-54</t>
+  </si>
+  <si>
+    <t>6-55</t>
+  </si>
+  <si>
+    <t>6-56</t>
+  </si>
+  <si>
+    <t>6-57</t>
+  </si>
+  <si>
+    <t>6-58</t>
+  </si>
+  <si>
+    <t>6-59</t>
+  </si>
+  <si>
+    <t>6-60</t>
+  </si>
+  <si>
+    <t>6-61</t>
+  </si>
+  <si>
+    <t>6-62</t>
+  </si>
+  <si>
+    <t>6-63</t>
+  </si>
+  <si>
+    <t>6-64</t>
+  </si>
+  <si>
+    <t>6-65</t>
+  </si>
+  <si>
+    <t>6-66</t>
+  </si>
+  <si>
+    <t>6-67</t>
+  </si>
+  <si>
+    <t>6-68</t>
+  </si>
+  <si>
+    <t>6-69</t>
+  </si>
+  <si>
+    <t>6-70</t>
+  </si>
+  <si>
+    <t>④/56</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -21634,7 +23876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -21844,51 +24086,13 @@
     <xf numFmtId="56" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21916,6 +24120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22183,69 +24391,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A5D05C-A947-412D-8467-707785D53B24}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.625" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71" style="84" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="83"/>
-    <col min="8" max="8" width="9.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="87" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="87"/>
+    <col min="1" max="1" width="5.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="81" customFormat="1" ht="18">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="18">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customFormat="1" ht="37.5">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:11" ht="37.5">
+      <c r="A2" s="19" t="s">
         <v>1446</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -22264,17 +24471,17 @@
       <c r="I2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" customFormat="1" ht="37.5">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:11" ht="37.5">
+      <c r="A3" s="19" t="s">
         <v>1447</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -22296,14 +24503,14 @@
       <c r="J3" s="8"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" customFormat="1" ht="37.5">
-      <c r="A4" s="82" t="s">
+    <row r="4" spans="1:11" ht="37.5">
+      <c r="A4" s="19" t="s">
         <v>1448</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -22325,14 +24532,14 @@
       <c r="J4" s="8"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" customFormat="1" ht="37.5">
-      <c r="A5" s="82" t="s">
+    <row r="5" spans="1:11" ht="37.5">
+      <c r="A5" s="19" t="s">
         <v>1449</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -22354,14 +24561,14 @@
       <c r="J5" s="8"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="90" customFormat="1" ht="37.5">
-      <c r="A6" s="82" t="s">
+    <row r="6" spans="1:11" s="77" customFormat="1" ht="37.5">
+      <c r="A6" s="19" t="s">
         <v>1449</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -22373,24 +24580,24 @@
       <c r="F6" s="3" t="s">
         <v>1469</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="83" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="88"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:11" ht="56.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="19" t="s">
         <v>1450</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -22402,21 +24609,21 @@
       <c r="F7" s="3" t="s">
         <v>1471</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="56.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="19" t="s">
         <v>1451</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -22428,21 +24635,21 @@
       <c r="F8" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="83"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="56.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="19" t="s">
         <v>1452</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -22454,21 +24661,21 @@
       <c r="F9" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="83"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="56.25">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="19" t="s">
         <v>1453</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -22480,21 +24687,21 @@
       <c r="F10" s="3" t="s">
         <v>1478</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="83"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="168.75">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="19" t="s">
         <v>1480</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -22506,21 +24713,21 @@
       <c r="F11" s="25" t="s">
         <v>1436</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="83"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="56.25">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="19" t="s">
         <v>1481</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -22532,15 +24739,15 @@
       <c r="F12" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="83"/>
-    </row>
-    <row r="13" spans="1:11" s="94" customFormat="1" ht="75">
-      <c r="A13" s="92" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" s="80" customFormat="1" ht="75">
+      <c r="A13" s="78" t="s">
         <v>1482</v>
       </c>
       <c r="B13" s="57" t="s">
@@ -22563,17 +24770,17 @@
       </c>
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
-      <c r="J13" s="93"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" ht="75">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="19" t="s">
         <v>1517</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="3" t="s">
         <v>1518</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -22585,81 +24792,81 @@
       <c r="F14" s="25" t="s">
         <v>1520</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="83"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="I15" s="83"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="83"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="I16" s="83"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="83"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="9:11">
-      <c r="I17" s="83"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="83"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="9:11">
-      <c r="K18" s="83"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="9:11">
-      <c r="K19" s="83"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="9:11">
-      <c r="K20" s="83"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="9:11">
-      <c r="K21" s="83"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="9:11">
-      <c r="K22" s="83"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="9:11">
-      <c r="K23" s="83"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="9:11">
-      <c r="K24" s="83"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="9:11">
-      <c r="K25" s="83"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="9:11">
-      <c r="K26" s="83"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="9:11">
-      <c r="K27" s="83"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="9:11">
-      <c r="K28" s="83"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="9:11">
-      <c r="K29" s="83"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="9:11">
-      <c r="K30" s="83"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="9:11">
-      <c r="K31" s="83"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="9:11">
-      <c r="K32" s="83"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="11:11">
-      <c r="K33" s="83"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="11:11">
-      <c r="K34" s="83"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="11:11">
-      <c r="K35" s="83"/>
+      <c r="K35" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -33210,7 +35417,7 @@
       <c r="D6" s="28" t="s">
         <v>1488</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="81" t="s">
         <v>1489</v>
       </c>
       <c r="F6" s="28" t="s">
@@ -33241,7 +35448,7 @@
       <c r="D7" s="28" t="s">
         <v>1494</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="81" t="s">
         <v>1493</v>
       </c>
       <c r="F7" s="28" t="s">
@@ -33300,7 +35507,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="C14" s="2" t="s">
-        <v>1522</v>
+        <v>1657</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
@@ -39815,8 +42022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB75208E-756F-417E-A771-63BEC3039981}">
   <dimension ref="A1:K688"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -43768,10 +45975,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B2625D-4C14-43F4-8BC9-62F8F8942E4C}">
-  <dimension ref="A1:K658"/>
+  <dimension ref="A1:K659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="D66" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -44847,22 +47054,22 @@
     </row>
     <row r="33" spans="1:11" ht="75">
       <c r="A33" s="19" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>1523</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>1524</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>1525</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>1526</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>241</v>
@@ -44878,226 +47085,1171 @@
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="37.5">
+      <c r="A34" s="19" t="s">
+        <v>1619</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>254</v>
+        <v>730</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>1528</v>
       </c>
+      <c r="F34" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="37.5">
+      <c r="A35" s="19" t="s">
+        <v>1620</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>254</v>
+        <v>730</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>289</v>
+        <v>1529</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>262</v>
+        <v>1530</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="37.5">
+      <c r="A36" s="19" t="s">
+        <v>1621</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>727</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>254</v>
+        <v>730</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>290</v>
+        <v>1531</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>263</v>
+        <v>1532</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="37.5">
+      <c r="A37" s="19" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>254</v>
+        <v>730</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>291</v>
+        <v>1533</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>264</v>
+        <v>1541</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H37" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="37.5">
+      <c r="A38" s="19" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>254</v>
+        <v>730</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>461</v>
+        <v>1534</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>470</v>
+        <v>1535</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H38" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="37.5">
+      <c r="A39" s="19" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>254</v>
+        <v>730</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>462</v>
+        <v>1536</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>468</v>
+        <v>1540</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="37.5">
+      <c r="A40" s="19" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>254</v>
+        <v>730</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>463</v>
+        <v>1537</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>468</v>
+        <v>1538</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H40" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="37.5">
+      <c r="A41" s="19" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>254</v>
+        <v>730</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>464</v>
+        <v>1539</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>468</v>
+        <v>1542</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H41" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="37.5">
+      <c r="A42" s="19" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H42" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="37.5">
+      <c r="A43" s="19" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H43" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="37.5">
+      <c r="A44" s="19" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="37.5">
+      <c r="A45" s="19" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="37.5">
+      <c r="A46" s="19" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="37.5">
+      <c r="A47" s="19" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H47" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="37.5">
+      <c r="A48" s="19" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="11:11">
+    <row r="49" spans="1:11" ht="56.25">
+      <c r="A49" s="19" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H49" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="11:11">
+    <row r="50" spans="1:11" ht="75">
+      <c r="A50" s="19" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H50" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="11:11">
+    <row r="51" spans="1:11" ht="75">
+      <c r="A51" s="19" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H51" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="11:11">
+    <row r="52" spans="1:11" ht="75">
+      <c r="A52" s="19" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H52" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="11:11">
+    <row r="53" spans="1:11" ht="75">
+      <c r="A53" s="19" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H53" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="11:11">
+    <row r="54" spans="1:11" ht="75">
+      <c r="A54" s="19" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H54" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="11:11">
+    <row r="55" spans="1:11" ht="75">
+      <c r="A55" s="19" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="11:11">
+    <row r="56" spans="1:11" ht="75">
+      <c r="A56" s="19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H56" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="11:11">
+    <row r="57" spans="1:11" ht="93.75">
+      <c r="A57" s="19" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H57" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="11:11">
+    <row r="58" spans="1:11" ht="93.75">
+      <c r="A58" s="19" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H58" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="11:11">
+    <row r="59" spans="1:11" ht="75">
+      <c r="A59" s="19" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H59" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="11:11">
+    <row r="60" spans="1:11" ht="93.75">
+      <c r="A60" s="19" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H60" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="11:11">
+    <row r="61" spans="1:11" ht="93.75">
+      <c r="A61" s="19" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H61" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="11:11">
+    <row r="62" spans="1:11" ht="93.75">
+      <c r="A62" s="19" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H62" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="11:11">
+    <row r="63" spans="1:11" ht="93.75">
+      <c r="A63" s="19" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H63" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="11:11">
+    <row r="64" spans="1:11" ht="75">
+      <c r="A64" s="19" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H64" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="11:11">
+    <row r="65" spans="1:11" ht="93.75">
+      <c r="A65" s="19" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H65" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="11:11">
+    <row r="66" spans="1:11" ht="93.75">
+      <c r="A66" s="19" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H66" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="11:11">
+    <row r="67" spans="1:11" ht="75">
+      <c r="A67" s="19" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H67" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="11:11">
+    <row r="68" spans="1:11" ht="75">
+      <c r="A68" s="19" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H68" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="11:11">
+    <row r="69" spans="1:11" ht="75">
+      <c r="A69" s="19" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H69" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="11:11">
+    <row r="70" spans="1:11" ht="75">
+      <c r="A70" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H70" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="11:11">
+    <row r="71" spans="1:11" ht="75">
+      <c r="A71" s="19" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H71" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="11:11">
+    <row r="72" spans="1:11">
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="11:11">
+    <row r="73" spans="1:11">
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="11:11">
+    <row r="74" spans="1:11">
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="11:11">
+    <row r="75" spans="1:11">
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="11:11">
+    <row r="76" spans="1:11">
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="11:11">
+    <row r="77" spans="1:11">
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="11:11">
+    <row r="78" spans="1:11">
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="11:11">
+    <row r="79" spans="1:11">
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="11:11">
+    <row r="80" spans="1:11">
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="11:11">
@@ -46833,6 +49985,9 @@
     </row>
     <row r="658" spans="11:11">
       <c r="K658" s="3"/>
+    </row>
+    <row r="659" spans="11:11">
+      <c r="K659" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -46846,7 +50001,7 @@
   <dimension ref="A1:K690"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -48306,7 +51461,9 @@
       <c r="G44" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H44" s="32"/>
+      <c r="H44" s="32">
+        <v>45915</v>
+      </c>
       <c r="I44" s="31" t="s">
         <v>243</v>
       </c>

--- a/テスト指示書Ver4.xlsx
+++ b/テスト指示書Ver4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="6_{70D49645-6B16-4415-957D-337BB858348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A15A5CF-702F-4B58-948E-71B961FDC180}"/>
+  <xr:revisionPtr revIDLastSave="422" documentId="6_{70D49645-6B16-4415-957D-337BB858348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C36B6D9-42B5-464F-B8FD-3786CAFA9C5B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.ログイン画面" sheetId="17" r:id="rId1"/>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4379" uniqueCount="1678">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -23692,7 +23692,597 @@
     <t>6-70</t>
   </si>
   <si>
-    <t>④/56</t>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（名）にその中から「太郎」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）にその中から「山田」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（姓）にその中から任意の「ヤマダ」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（名）にその中から「タロウ」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のメールアドレスにその中から「gmail」を入力後、検索ボタンを押す</t>
+    <rPh sb="28" eb="32">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の性別にその中から「女」を選択後、検索ボタンを押す</t>
+    <rPh sb="28" eb="32">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）と名前（名）にその中から「田中」 と「太郎」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）とメールアドレスにその中から任意の「山田」 と「ins@gmail.com」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の性別とアカウント権限にその中から任意の「女」と「管理者」を選択後、検索ボタンを押す</t>
+    <rPh sb="28" eb="32">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（姓）とカナ（名）にその中から任意の「ヤマダ」 と「タロウ」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（名）とメールアドレスにその中から任意の「太郎」 と「gmail」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（姓）とメールアドレスにその中から任意の「ヤマダ」と「ins@gmail.com」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（名）とメールアドレスにその中から任意の「タロウ」と「gmail」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の性別とメールアドレスにその中から任意の「女」と「yahoo@mail」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のアカウント権限とメールアドレスにその中から任意の「一般」と「gmail」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）とカナ（姓）にその中から任意の「山田」 と「ヤマダ」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（名）にその中から「太」 を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表の名前（姓）にその中から「山」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（姓）にその中から「ヤマ」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_data の表示タグを選択し、アカウント一覧画面の表のカナ（名）にその中から「ロウ」を入力後、検索ボタンを押す</t>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④要修正0/56</t>
+    <rPh sb="1" eb="4">
+      <t>ヨウシュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -23876,7 +24466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -24089,15 +24679,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -24391,8 +24975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A5D05C-A947-412D-8467-707785D53B24}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -24403,9 +24987,9 @@
     <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="8" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -24467,11 +25051,15 @@
       <c r="G2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5">
+        <v>45915</v>
+      </c>
       <c r="I2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="37.5">
@@ -24496,11 +25084,15 @@
       <c r="G3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>45915</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
@@ -24525,11 +25117,15 @@
       <c r="G4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>45915</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
@@ -24554,14 +25150,18 @@
       <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>45915</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="77" customFormat="1" ht="37.5">
+    <row r="6" spans="1:11" s="76" customFormat="1" ht="37.5">
       <c r="A6" s="19" t="s">
         <v>1449</v>
       </c>
@@ -24583,11 +25183,15 @@
       <c r="G6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>45915</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="76"/>
+      <c r="J6" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:11" ht="56.25">
@@ -24612,8 +25216,15 @@
       <c r="G7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="8"/>
+      <c r="H7" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="56.25">
@@ -24638,8 +25249,15 @@
       <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="56.25">
@@ -24664,8 +25282,15 @@
       <c r="G9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="56.25">
@@ -24690,8 +25315,15 @@
       <c r="G10" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="168.75">
@@ -24716,8 +25348,15 @@
       <c r="G11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="8"/>
+      <c r="H11" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="56.25">
@@ -24742,12 +25381,19 @@
       <c r="G12" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" s="80" customFormat="1" ht="75">
-      <c r="A13" s="78" t="s">
+    <row r="13" spans="1:11" s="78" customFormat="1" ht="75">
+      <c r="A13" s="77" t="s">
         <v>1482</v>
       </c>
       <c r="B13" s="57" t="s">
@@ -24768,9 +25414,15 @@
       <c r="G13" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="79"/>
+      <c r="H13" s="59">
+        <v>45915</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>245</v>
+      </c>
       <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" ht="75">
@@ -24795,8 +25447,15 @@
       <c r="G14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="8"/>
+      <c r="H14" s="5">
+        <v>45915</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11">
@@ -27098,7 +27757,7 @@
   <dimension ref="A1:K687"/>
   <sheetViews>
     <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -30077,11 +30736,15 @@
       <c r="G90" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H90" s="32"/>
+      <c r="H90" s="32">
+        <v>45915</v>
+      </c>
       <c r="I90" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J90" s="36"/>
+      <c r="J90" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="K90" s="35"/>
     </row>
     <row r="91" spans="1:11">
@@ -35214,7 +35877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0129-4B5A-429F-8AFC-BDF5DEDBFD87}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -35417,7 +36080,7 @@
       <c r="D6" s="28" t="s">
         <v>1488</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="79" t="s">
         <v>1489</v>
       </c>
       <c r="F6" s="28" t="s">
@@ -35426,11 +36089,15 @@
       <c r="G6" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="32">
+        <v>45915</v>
+      </c>
       <c r="I6" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="J6" s="29" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="27" t="s">
         <v>724</v>
       </c>
@@ -35448,7 +36115,7 @@
       <c r="D7" s="28" t="s">
         <v>1494</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="79" t="s">
         <v>1493</v>
       </c>
       <c r="F7" s="28" t="s">
@@ -35457,11 +36124,15 @@
       <c r="G7" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="32">
+        <v>45915</v>
+      </c>
       <c r="I7" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="29" t="s">
+        <v>245</v>
+      </c>
       <c r="K7" s="27" t="s">
         <v>724</v>
       </c>
@@ -35507,7 +36178,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="C14" s="2" t="s">
-        <v>1657</v>
+        <v>1677</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
@@ -35598,8 +36269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E21"/>
+    <sheetView topLeftCell="C82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -38654,11 +39325,15 @@
       <c r="G92" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H92" s="32"/>
+      <c r="H92" s="32">
+        <v>45915</v>
+      </c>
       <c r="I92" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J92" s="36"/>
+      <c r="J92" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="K92" s="35"/>
     </row>
   </sheetData>
@@ -42022,7 +42697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB75208E-756F-417E-A771-63BEC3039981}">
   <dimension ref="A1:K688"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -45977,8 +46652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B2625D-4C14-43F4-8BC9-62F8F8942E4C}">
   <dimension ref="A1:K659"/>
   <sheetViews>
-    <sheetView topLeftCell="D66" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E71"/>
+    <sheetView topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F66" sqref="F1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -47045,11 +47720,15 @@
       <c r="G32" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="32"/>
+      <c r="H32" s="32">
+        <v>45915</v>
+      </c>
       <c r="I32" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J32" s="36"/>
+      <c r="J32" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:11" ht="75">
@@ -47075,7 +47754,7 @@
         <v>241</v>
       </c>
       <c r="H33" s="5">
-        <v>45907</v>
+        <v>45915</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>243</v>
@@ -47113,6 +47792,9 @@
       <c r="I34" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J34" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="37.5">
@@ -47143,6 +47825,9 @@
       <c r="I35" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J35" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="37.5">
@@ -47173,6 +47858,9 @@
       <c r="I36" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J36" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="37.5">
@@ -47203,6 +47891,9 @@
       <c r="I37" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J37" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="37.5">
@@ -47233,6 +47924,9 @@
       <c r="I38" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J38" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="37.5">
@@ -47263,6 +47957,9 @@
       <c r="I39" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J39" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="37.5">
@@ -47293,6 +47990,9 @@
       <c r="I40" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J40" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="37.5">
@@ -47323,6 +48023,9 @@
       <c r="I41" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J41" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="37.5">
@@ -47353,6 +48056,9 @@
       <c r="I42" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J42" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="37.5">
@@ -47383,6 +48089,9 @@
       <c r="I43" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J43" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="37.5">
@@ -47413,6 +48122,9 @@
       <c r="I44" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J44" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="37.5">
@@ -47443,6 +48155,9 @@
       <c r="I45" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J45" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="37.5">
@@ -47473,6 +48188,9 @@
       <c r="I46" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J46" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="37.5">
@@ -47503,6 +48221,9 @@
       <c r="I47" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J47" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="37.5">
@@ -47533,6 +48254,9 @@
       <c r="I48" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J48" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="56.25">
@@ -47563,6 +48287,9 @@
       <c r="I49" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J49" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="75">
@@ -47582,7 +48309,7 @@
         <v>1579</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1584</v>
+        <v>1658</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>241</v>
@@ -47592,6 +48319,9 @@
       </c>
       <c r="I50" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K50" s="3"/>
     </row>
@@ -47612,7 +48342,7 @@
         <v>1578</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1583</v>
+        <v>1657</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>241</v>
@@ -47622,6 +48352,9 @@
       </c>
       <c r="I51" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K51" s="3"/>
     </row>
@@ -47642,7 +48375,7 @@
         <v>1577</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>1582</v>
+        <v>1659</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>241</v>
@@ -47652,6 +48385,9 @@
       </c>
       <c r="I52" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -47672,7 +48408,7 @@
         <v>1576</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>1581</v>
+        <v>1660</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>241</v>
@@ -47682,6 +48418,9 @@
       </c>
       <c r="I53" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K53" s="3"/>
     </row>
@@ -47702,7 +48441,7 @@
         <v>1575</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1586</v>
+        <v>1661</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>241</v>
@@ -47712,6 +48451,9 @@
       </c>
       <c r="I54" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -47732,7 +48474,7 @@
         <v>1588</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1587</v>
+        <v>1662</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>241</v>
@@ -47742,6 +48484,9 @@
       </c>
       <c r="I55" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K55" s="3"/>
     </row>
@@ -47773,9 +48518,12 @@
       <c r="I56" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J56" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="93.75">
+    <row r="57" spans="1:11" ht="75">
       <c r="A57" s="19" t="s">
         <v>1642</v>
       </c>
@@ -47792,7 +48540,7 @@
         <v>1590</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1589</v>
+        <v>1663</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>241</v>
@@ -47802,6 +48550,9 @@
       </c>
       <c r="I57" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -47822,7 +48573,7 @@
         <v>1592</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1591</v>
+        <v>1666</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>241</v>
@@ -47833,9 +48584,12 @@
       <c r="I58" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J58" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="75">
+    <row r="59" spans="1:11" ht="93.75">
       <c r="A59" s="19" t="s">
         <v>1644</v>
       </c>
@@ -47852,7 +48606,7 @@
         <v>1594</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1593</v>
+        <v>1665</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>241</v>
@@ -47862,6 +48616,9 @@
       </c>
       <c r="I59" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -47882,7 +48639,7 @@
         <v>1608</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1595</v>
+        <v>1664</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>241</v>
@@ -47892,6 +48649,9 @@
       </c>
       <c r="I60" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -47912,7 +48672,7 @@
         <v>1607</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1596</v>
+        <v>1667</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>241</v>
@@ -47922,6 +48682,9 @@
       </c>
       <c r="I61" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -47942,7 +48705,7 @@
         <v>1606</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1600</v>
+        <v>1668</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>241</v>
@@ -47952,6 +48715,9 @@
       </c>
       <c r="I62" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -47972,7 +48738,7 @@
         <v>1605</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1597</v>
+        <v>1669</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>241</v>
@@ -47983,9 +48749,12 @@
       <c r="I63" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J63" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="75">
+    <row r="64" spans="1:11" ht="93.75">
       <c r="A64" s="19" t="s">
         <v>1649</v>
       </c>
@@ -48002,7 +48771,7 @@
         <v>1604</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1598</v>
+        <v>1670</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>241</v>
@@ -48012,6 +48781,9 @@
       </c>
       <c r="I64" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K64" s="3"/>
     </row>
@@ -48032,7 +48804,7 @@
         <v>1603</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>1599</v>
+        <v>1671</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>241</v>
@@ -48042,6 +48814,9 @@
       </c>
       <c r="I65" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K65" s="3"/>
     </row>
@@ -48062,7 +48837,7 @@
         <v>1602</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1601</v>
+        <v>1672</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>241</v>
@@ -48072,6 +48847,9 @@
       </c>
       <c r="I66" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -48092,7 +48870,7 @@
         <v>1614</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1609</v>
+        <v>1674</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>241</v>
@@ -48102,6 +48880,9 @@
       </c>
       <c r="I67" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K67" s="3"/>
     </row>
@@ -48122,7 +48903,7 @@
         <v>1615</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1610</v>
+        <v>1673</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>241</v>
@@ -48132,6 +48913,9 @@
       </c>
       <c r="I68" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K68" s="3"/>
     </row>
@@ -48152,7 +48936,7 @@
         <v>1616</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>1611</v>
+        <v>1675</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>241</v>
@@ -48162,6 +48946,9 @@
       </c>
       <c r="I69" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K69" s="3"/>
     </row>
@@ -48182,7 +48969,7 @@
         <v>1617</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1612</v>
+        <v>1676</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>241</v>
@@ -48192,6 +48979,9 @@
       </c>
       <c r="I70" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K70" s="3"/>
     </row>
@@ -48212,7 +49002,7 @@
         <v>1618</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>1613</v>
+        <v>1661</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>241</v>
@@ -48222,6 +49012,9 @@
       </c>
       <c r="I71" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="K71" s="3"/>
     </row>
@@ -50000,8 +50793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF41CC9-9440-4460-AA74-67B3716224DA}">
   <dimension ref="A1:K690"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -50015,7 +50808,7 @@
     <col min="7" max="7" width="9" style="6" customWidth="1"/>
     <col min="8" max="8" width="9" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="37.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="18">
@@ -51467,7 +52260,9 @@
       <c r="I44" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J44" s="36"/>
+      <c r="J44" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="K44" s="35"/>
     </row>
     <row r="45" spans="1:11">
